--- a/Support/Ethnic_Origin_Groupings.xlsx
+++ b/Support/Ethnic_Origin_Groupings.xlsx
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
